--- a/src/attributions/attributions_ig_traj_467.xlsx
+++ b/src/attributions/attributions_ig_traj_467.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1573,37 +1573,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.06692013671556604</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02651657207013084</v>
+        <v>-0.007698636910770198</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.01526296678998702</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.002091322877931025</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06530397045539395</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.02375884960327811</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01745427835147831</v>
+        <v>-0.02137050315071144</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0.01006654873820268</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003755451146580826</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02844259761860451</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>-0.0009988672468050383</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1639,79 +1639,79 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05064325039126732</v>
+        <v>-0.01745118797245224</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.0169785956205028</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.02442924473171242</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.00554594468781084</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.004317274279963414</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.004574461768622081</v>
+        <v>0.007869420444146536</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.001009917385144851</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001739942811328837</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.007429006313192629</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.01292516747852669</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.005560040790181591</v>
+        <v>-0.009408746994766772</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0.01465675484797975</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.003031702925623257</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.002743804224810505</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.1058366067877649</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1720,52 +1720,52 @@
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.09835602723175906</v>
+        <v>0.0082007164108862</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.01673018408105359</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.08851849051539368</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.08318378979075153</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.01386038139405156</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.02021203708394668</v>
+        <v>-0.01305096889270698</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.003916014014959461</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.006496027826376253</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.003789499337999356</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.03855135551404824</v>
       </c>
       <c r="BN3" t="n">
         <v>-0</v>
@@ -1774,79 +1774,79 @@
         <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01468196805342624</v>
+        <v>0.02596299839252248</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.01363593773567502</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0.01712927293895035</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.02221290552931135</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.04160734495829051</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1110461492282319</v>
+        <v>-0.02896190079870664</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0.02623374164207505</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.02094213140602439</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.06580966599396128</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.01021121588104703</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.0147313115511742</v>
+        <v>-0.002657907976476829</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.01703656807997285</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.00866614297918052</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.004966424610459113</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>0.01464176343024662</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1855,133 +1855,133 @@
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.03905854649224936</v>
+        <v>0.005383069586818494</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>-0.02528367336834453</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.02594768352511406</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.03638136916543692</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.004319751624972959</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.01457125609650592</v>
+        <v>-0.0001546267831410483</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.0220186973712585</v>
       </c>
       <c r="DB3" t="n">
-        <v>-1.813578053597237e-05</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.02199158748201745</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.01093068582250599</v>
       </c>
       <c r="DG3" t="n">
         <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.06464508135211569</v>
+        <v>0.01696039703971827</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.01720814075582321</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01872602871902101</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.01828765940244341</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.003040710677854332</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0001100740134532755</v>
+        <v>0.02257622502596876</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.005797130557044341</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.002093069193386701</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.02998483184928591</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.02587838974234904</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02053452184569048</v>
+        <v>-0.04498270796651414</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.01469546633585775</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.04106458069274675</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.009324662449928628</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.001173331975195375</v>
       </c>
       <c r="EH3" t="n">
         <v>-0</v>
@@ -1990,106 +1990,106 @@
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.003245437070141006</v>
+        <v>-0.01170680737225634</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.00230608257389561</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.0006399610059262102</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.01209431534411826</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.00637155468317768</v>
       </c>
       <c r="EQ3" t="n">
         <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.01683366184738999</v>
+        <v>-0.0123611003589092</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0.05772247863443561</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.07470799386464692</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.02834815816558798</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>0.000685533797697584</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.01108983761606708</v>
+        <v>-0.0002219075286049679</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>0.02170245804226252</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.005747430745950311</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.01607960714582414</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.0231384710108488</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.0007568918381423309</v>
+        <v>-0.05048600306408532</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.007131253066648013</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0.01903335474230067</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.0269776827065518</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.0004095146174966913</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2098,46 +2098,46 @@
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.011189235476504</v>
+        <v>-0.01160022670605569</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.04196190299251346</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0.05085272200641853</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.03114399296736202</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.02425752562382387</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.00639797179176058</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0.03732789094417252</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.04987443142708242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1712863114473656</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02345714205454331</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.03796502845542246</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008353579621195841</v>
+        <v>-0.04737848213212567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05953060039753468</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.1182888863385793</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.007519846055318792</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>-0.01192962242350428</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01362992024860272</v>
+        <v>-0.05944875942275085</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05746986640386312</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.05722972474486246</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.009621276389858279</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.01046553216889693</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003707006651237833</v>
+        <v>0.02808469387429977</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,52 +2217,52 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01828864090715733</v>
+        <v>-0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0.01673929346319286</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.002182719252077648</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.01231485737333374</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.003025203889380723</v>
+        <v>0.001694138348302584</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.009562494308946718</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.02034157055315556</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.009228573397672152</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>-0.03344262271137145</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01043563810759454</v>
+        <v>-0.03887131747375178</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2274,25 +2274,25 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.001616930063464045</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.3183382078861889</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.09111221673405615</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0.02115433228579579</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.006778108190037367</v>
+        <v>0.1575356266136382</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2301,49 +2301,49 @@
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0668956703138515</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.01079562669345964</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.00762949984367941</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.01612422805532911</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002287041319710476</v>
+        <v>-0.06610050271055802</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.001087579382689783</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.07054037891642595</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.03470714410278213</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.05661358910673901</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03711301986975792</v>
+        <v>0.09449768741576664</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,25 +2352,25 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.01967665806081087</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.1634579663398945</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.01895570055491668</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0.00274819160867778</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01166119709417655</v>
+        <v>0.02120236475338493</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.05333906906355921</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.05345852274625645</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02134001667469964</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.005679547297831632</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.001330033418386681</v>
+        <v>0.005306705878183</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,22 +2409,22 @@
         <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.01854301878629095</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.03568702633521963</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.005739269328439767</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.04436266335623708</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.01147061689180824</v>
+        <v>-0.08634830961935626</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
@@ -2436,22 +2436,22 @@
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.02920352702209576</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.03018420341628278</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01262688186286885</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.0285912201215302</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.008153315506466082</v>
+        <v>0.01287203013867217</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02252405519277332</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.04526691187746678</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.03138699144383413</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>0.01258912294407035</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01012258511907824</v>
+        <v>-0.01316545437119579</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,49 +2490,49 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.03621215227195027</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.03986165864711567</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0004971778759823312</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.05312889245093388</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.002437401343707752</v>
+        <v>0.00752713499362133</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.01672761724358494</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.0453389105192584</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.009899036545474308</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.05059546115836701</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.008080844448148215</v>
+        <v>-0.02849456738785242</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2541,52 +2541,52 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01203162534367982</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.0270548173741125</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01577597495402272</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.07780448254855828</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.02430696998165675</v>
+        <v>0.05138656114088212</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.01915582214545345</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.05515026620620901</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0068094286978238</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.06399665268745858</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.007394526528883017</v>
+        <v>0.01804349450838135</v>
       </c>
       <c r="ET4" t="n">
         <v>-0</v>
@@ -2595,25 +2595,25 @@
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.02717608709094153</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.04776032676788616</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01665189190018655</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.01910302737017021</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.003730152750126364</v>
+        <v>0.01137434268864248</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02719542536521573</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.04983481055607748</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.01690474700012351</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.05259301818027051</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.01771968691636462</v>
+        <v>-0.02626979598803915</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03412494656041838</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.01884386494285135</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01198987424302028</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>-0.02202338409996755</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.005220566169992502</v>
+        <v>0.02353331687864172</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
@@ -2676,37 +2676,37 @@
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.001548083184014077</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.008929060785395973</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.007779476126107401</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02719958895625641</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.01289564613646064</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2951,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
@@ -3059,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
@@ -3140,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -3283,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1967477208947564</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00308629676619141</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>-0.004872265091194075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000353943205191683</v>
+        <v>-0.02837682393856376</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,49 +3304,49 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04971006069408147</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.116776944234789</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003319743409044323</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0.006951769056264325</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.02016930953133567</v>
+        <v>-0.02842913099643884</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05081988260773002</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.06086784869816914</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00187222690643692</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.02034314225616877</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01280681027215707</v>
+        <v>0.05035320125856222</v>
       </c>
       <c r="X6" t="n">
         <v>-0</v>
@@ -3355,160 +3355,160 @@
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02876213884655145</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.01267934448369045</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.005292334463015094</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.002797233796791172</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.002372080533958542</v>
+        <v>0.003174615656739935</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.008760204583108147</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>-0.0005254745217937639</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.003510962596499395</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.01586140385751073</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01215516483572415</v>
+        <v>-0.02460788336239492</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR6" t="n">
         <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0002634493899112245</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.2836599140785776</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.02581512972849445</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.0247045848605295</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.007460227046824106</v>
+        <v>0.08781716397491006</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.05116948258918844</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.01926705599221756</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.008955184817277652</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>-0.02768828583778542</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.002650451153976778</v>
+        <v>-0.03735425356236665</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.008280113975548302</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.08426837505918107</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.02992080269103337</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.0101499845918527</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02449132290318959</v>
+        <v>0.1094836136844937</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.02215094182961643</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0.1420761185347105</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.001023718631585989</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.0152030182012071</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.007208005609187136</v>
+        <v>0.03775478345620469</v>
       </c>
       <c r="BZ6" t="n">
         <v>-0</v>
@@ -3520,22 +3520,22 @@
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.05076631670166073</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.05586648558837519</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.01184523336996809</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0.002971947335261922</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.001785261613568147</v>
+        <v>0.001850693063388636</v>
       </c>
       <c r="CI6" t="n">
         <v>-0</v>
@@ -3544,25 +3544,25 @@
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.01034398776411348</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.03330164037527465</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.00119669536083654</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0.03118696582035519</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.01783922636091181</v>
+        <v>-0.05820720391161267</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
@@ -3571,25 +3571,25 @@
         <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.02733285235342799</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.03900416094557654</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.01161248187103766</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.008175261877428851</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.006512796394604535</v>
+        <v>0.002528719973443893</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -3601,25 +3601,25 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01558758441932312</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01336814134607777</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.02796322967853691</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0.03268254201884994</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.001534783239995548</v>
+        <v>0.005690566030630777</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
@@ -3628,49 +3628,49 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.003984012610374917</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.06801742044870897</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.01999778203052081</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>-0.01833799856181818</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.005896302833986245</v>
+        <v>-0.006270177971182392</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01908034762385364</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.006914874914832961</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.00522735008830731</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.01770957462388867</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.003621626104775724</v>
+        <v>-0.02682832782717445</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
@@ -3679,52 +3679,52 @@
         <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.009677267909451857</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
         <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.03187961122065148</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.006987725769209736</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>0.006586336872955008</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.02428187859380796</v>
+        <v>0.02700006138957949</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.01355205196043764</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.04093468309117096</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0.02198514014716899</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>-0.006741975655173421</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.008099791579619226</v>
+        <v>0.02487739632918624</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
@@ -3733,25 +3733,25 @@
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.01799538172607672</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.04196201217797101</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.01209545998097583</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.002227011316701669</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.00267513855569812</v>
+        <v>0.01594024624359943</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
@@ -3760,76 +3760,76 @@
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.01951875291305874</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>0.0208388691368058</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.02241055140414597</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>0.01883390333143351</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02126930317192807</v>
+        <v>-0.01293236814637832</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.03423636928198551</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>-0.04618970860674082</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.004217968732161396</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>-0.03594314514803253</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01345759231372832</v>
+        <v>0.001185876646727552</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0.002711164206994419</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.00385376722799897</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.003465005910431829</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.03462309383010512</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.01279097528406992</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,127 +3852,127 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.195493801821271</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04743259739412352</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0004723015576636663</v>
+        <v>-0.00262433643965683</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.1123130265949508</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1036970930378917</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1460540106776211</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01401464423366684</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003722152270112802</v>
+        <v>-0.01281029644780225</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>-0.08690718197286153</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1101641089589065</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.009516749568929046</v>
       </c>
       <c r="U7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02319980563613958</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08120452316511381</v>
+        <v>-0.04213149074306444</v>
       </c>
       <c r="X7" t="n">
-        <v>-0</v>
+        <v>-0.00875229422033265</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04833819941693041</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.01537375536667186</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.00253716761315033</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.008943377855284252</v>
+        <v>0.008969460895326143</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>-0.001075567528596065</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.02211887921852975</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.01919028624154192</v>
       </c>
       <c r="AM7" t="n">
         <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.01399758294556384</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01117164229895437</v>
+        <v>-0.02452725996030964</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>-0.04685764606827698</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -3981,25 +3981,25 @@
         <v>-0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01515935152122673</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.2037734641204624</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.07411951269804065</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.01459332559668612</v>
+        <v>-0.01646481092004047</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.103121402873532</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -4008,241 +4008,241 @@
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.08271913618000402</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.05836311109248396</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.01790990657686802</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01164741734486461</v>
+        <v>-0.03041243685794306</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.02888214728328173</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0004476402438662257</v>
+        <v>-0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.08977949986049211</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.008515605159937257</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.003785065284794085</v>
+        <v>0.04281419079574032</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.01313708953238299</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.05079781130386952</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.09209549202766351</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.05995503038091239</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002648246929665653</v>
+        <v>-0.02465785465065819</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0.0188113852500117</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0997510549984333</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.04754226287899155</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.01889247579571292</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.004546233671008719</v>
+        <v>-0.0103755135045273</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>0.03834580492435055</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.01665942565014482</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01345214999114164</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.002719008462605923</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.005908618428476602</v>
+        <v>0.02039721178057041</v>
       </c>
       <c r="CR7" t="n">
-        <v>0</v>
+        <v>-0.0417184007410606</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0359617332126182</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03213678433521184</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.02131897747906904</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.0159208779486571</v>
+        <v>-0.009805329673056182</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.038022920070216</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.02790952256730964</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.00622528152549361</v>
       </c>
       <c r="DG7" t="n">
         <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.02273202975233397</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.002060795546525803</v>
+        <v>0.003569384862801263</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>-3.222820901262594e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
         <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.003913841418692721</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.02169473200569216</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.00453428061835497</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.006922680229309255</v>
+        <v>0.03408508832012905</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>-0.004170221164915911</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03482375758056499</v>
+        <v>-0</v>
       </c>
       <c r="DW7" t="n">
         <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.01486740590448314</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0.01897057033404829</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01107207530471345</v>
+        <v>-0.03673486163849918</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>0.01248081776169925</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
@@ -4251,25 +4251,25 @@
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.01883408816689593</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
         <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02300870499644768</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.002992276824783526</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01083794655680475</v>
+        <v>0.005710237687450103</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0.02927829074474437</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4278,79 +4278,79 @@
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.0314113061974949</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.03876350886544885</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.03471736517633824</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.003798742938536966</v>
+        <v>-0.02989406189698851</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>0.06878887911503173</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.02533268104969963</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03254807243068258</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01360085446093351</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.005008801946125898</v>
+        <v>-0.007394094081075812</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>0.04177928752133848</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.03720563416140176</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.01453961554677161</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.008957551350463156</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.04017733407812989</v>
+        <v>-0.04340098043238874</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0.02043022316993903</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
@@ -4359,25 +4359,25 @@
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.03668203939664065</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.01959464406170035</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.00250600523824544</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.0004335423167993229</v>
+        <v>-0.02390750666654722</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0.002320044599917166</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,34 +4386,34 @@
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.02546740959824889</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.03007550638754577</v>
       </c>
       <c r="GA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03471287389653147</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.02909638141826818</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.001541975813980327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,55 +4421,55 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>-0.07456227594869803</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0.2262579093387404</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.004890211806884004</v>
+        <v>-0.07668622950747261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1877194020504839</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03825269539306405</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>-0.09035003424277582</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0.260863098418725</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04300646517329151</v>
+        <v>0.04626602657923398</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1845734546772154</v>
+        <v>-0</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05935267493899054</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -4478,76 +4478,76 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-0</v>
+        <v>-0.05559316916798959</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.07592653641401946</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.05215117636043867</v>
+        <v>0.01854353142418418</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04430087457612577</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.004968978033734872</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>-0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.009771008800622056</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>-0.01585153559192339</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.01998225683294325</v>
+        <v>-0.02190327240067729</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.01076367489053159</v>
+        <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.01092732913559065</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0.009423533362920684</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.02590354781923845</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0357916786240513</v>
+        <v>0.03430777962838209</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01142907139489137</v>
+        <v>-0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.008022567122892822</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -4559,76 +4559,76 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0.09583536249624817</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.1786988405945926</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.04841760370619812</v>
+        <v>-0.1862591724634094</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1310078679932773</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.05315170034278175</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>-0.02051622049852461</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0.05141479207832069</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.003428351248005362</v>
+        <v>-0.03123479940405085</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02389864335637732</v>
+        <v>-0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.01849407349524626</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0556334881966089</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0024377403277938</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.02097102672845563</v>
+        <v>-0.1521009055218665</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.0321615682828784</v>
+        <v>0</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0.0002748934191670973</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
         <v>0</v>
@@ -4640,22 +4640,22 @@
         <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>-0.1046079441190873</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.1162344249057741</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.007736249498308487</v>
+        <v>-0.121759208039611</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1069993714287468</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0.04074093110621034</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
@@ -4664,133 +4664,133 @@
         <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>0.05785254690421136</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0.0604513139156312</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005496255761482272</v>
+        <v>-0.01083007273344436</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.04145253451236638</v>
+        <v>-0</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.03012448408714107</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>0.007496658827611843</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>0.007517122919148013</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.04801183892920292</v>
+        <v>0.06862229069512946</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.06040704877516542</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
       </c>
       <c r="CT8" t="n">
-        <v>-0.0004429887889656901</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0</v>
+        <v>0.03874822412503003</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>-0.05054640642885559</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01272719613693707</v>
+        <v>-0.01714340891396561</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.05324062643654549</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>-0</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.03856924330797023</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
         <v>0</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0</v>
+        <v>-0.002967559385418131</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0.06425750300090968</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.006708438581249167</v>
+        <v>0.01327898343284288</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0.02595586198732677</v>
+        <v>0</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0.003206491567942026</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>0.05421283440306532</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0.03686665987384669</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.01851601452124436</v>
+        <v>0.07737948733128533</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0.01408795179762005</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
         <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.03128078133792492</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
         <v>-0</v>
@@ -4802,76 +4802,76 @@
         <v>-0</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>0.02995790768705678</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.03008075542337652</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.01201343864240661</v>
+        <v>0.03466597758124259</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0.01043708915451273</v>
+        <v>-0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.02191337326143424</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
         <v>-0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>0.07115265413713048</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0.06640823691001121</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.01213884198892647</v>
+        <v>-0.03575537329969117</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0.06885393893697146</v>
+        <v>0</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>-0.008839595103756136</v>
+        <v>0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>0.03498016407504083</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0.05257315105408347</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01035563636687925</v>
+        <v>-0.009346332934057594</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0.03354694691723726</v>
+        <v>0</v>
       </c>
       <c r="EU8" t="n">
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.02931009471683075</v>
+        <v>-0</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
@@ -4880,25 +4880,25 @@
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0</v>
+        <v>0.05282155879327256</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0.05867476285528651</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.01345310608717999</v>
+        <v>-0.01632933115529235</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0.0478379403284265</v>
+        <v>0</v>
       </c>
       <c r="FD8" t="n">
         <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.03291971751845948</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
@@ -4907,25 +4907,25 @@
         <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>0.02886968456677217</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>0.04937580179927734</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.009648068205895192</v>
+        <v>-0.05844046550326075</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.01685260782897242</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.06314633412639679</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
@@ -4934,55 +4934,55 @@
         <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>0.006638897624860193</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.005312047427562369</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03747092284856665</v>
+        <v>0.02022737146092662</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.01033712263644949</v>
+        <v>-0</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.005243488930743919</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>0.02143107561313182</v>
       </c>
       <c r="GB8" t="n">
-        <v>-0</v>
+        <v>0.03730930171103044</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.02422772909788973</v>
+        <v>0</v>
       </c>
       <c r="GE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.001927456846666268</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>-0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>-0</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>-0</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>-0</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>-0</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>-0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>-0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>-0</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>-0</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>-0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>-0</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>-0</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>-0</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>-0</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>-0</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
@@ -5559,34 +5559,34 @@
         <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2039042032380843</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04236602018541972</v>
+        <v>-0.1794651428754679</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2245076200052145</v>
+        <v>-0.05426417571395763</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02972394498766754</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1497077258600152</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5595,16 +5595,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02423454545809784</v>
+        <v>-0.1813129142142397</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2291079923907835</v>
+        <v>-0.06132786598334804</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03249525428355386</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.04693461228322</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04938711551737197</v>
+        <v>-0.02371370407454441</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04044381378939291</v>
+        <v>0.04871372225115689</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01367438817064495</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -5640,25 +5640,25 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.02749954987435061</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.0506672549994309</v>
+        <v>0.0005362738560554806</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.02070396406708929</v>
+        <v>0.008605049747437407</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.01180477861295162</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -5667,34 +5667,34 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.04732359225231512</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0085607302518498</v>
+        <v>-0.01548276700525104</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01936370972424371</v>
+        <v>-0.01970076137404788</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.009976525342035514</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.2141488937998984</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -5703,52 +5703,52 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.01450654769013009</v>
+        <v>-0.1062261028739671</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1001147302797182</v>
+        <v>-0.0451446279529856</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.02167782395653036</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.05173649375456642</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.008344772523350674</v>
+        <v>-0.1070129495180789</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.05040493792739841</v>
+        <v>-0.02067427852827511</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.03647541629645367</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.08977216179274879</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
@@ -5757,97 +5757,97 @@
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.01008382042079312</v>
+        <v>0.02566454218381968</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.04213741782347772</v>
+        <v>0.04807652347252042</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0.0284058055026359</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1301914605638603</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.05665776207259542</v>
+        <v>-0.04762874876486222</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.1327609282086785</v>
+        <v>0.0258906902271311</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.0008977268495551268</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.03271780498461448</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.0004847043379094781</v>
+        <v>0.03436311909200391</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.04357242756968625</v>
+        <v>0.02375783740825914</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.006936400774007674</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.0214513098871394</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.01126214791541968</v>
+        <v>0.002208518665768379</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.04960385747823293</v>
+        <v>-0.01472796541548929</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.02144759991689253</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,52 +5856,52 @@
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.01641976526971575</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.01121419821739516</v>
+        <v>0.03299875652722398</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.05159924352094804</v>
+        <v>0.03151716845135254</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01692777683159257</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.0356052353063743</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.04519421963228883</v>
+        <v>0.02272898681069823</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.0211803608895685</v>
+        <v>-0.004597759484357604</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.001175124623359169</v>
+        <v>-0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,34 +5910,34 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02801827752347907</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01590931857609852</v>
+        <v>0.01870892383402612</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.02921011048265747</v>
+        <v>-0.06810005201429935</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.02681122150029501</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.005347577098407808</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
@@ -5946,70 +5946,70 @@
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01469961547032487</v>
+        <v>-0.05718706211650888</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001367666674669729</v>
+        <v>-0.04963009826079739</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0077619703948692</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.01647437049456156</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.03909846999029421</v>
+        <v>0.03164526663203931</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.07810019145031322</v>
+        <v>0.007830312550541641</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.04542248351558442</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>0.02871633323905612</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01359294786267371</v>
+        <v>0.01290487038339589</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.0342659889910228</v>
+        <v>0.04759833445654382</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.034209919095654</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
         <v>0</v>
@@ -6018,109 +6018,109 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0124994363199761</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01081690101216701</v>
+        <v>0.0288083656907957</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.04816852095395526</v>
+        <v>0.03555749521189096</v>
       </c>
       <c r="FD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.01425429788573843</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.03770862458792774</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.00137540375383049</v>
+        <v>-0.03748858524174518</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.03686306409499547</v>
+        <v>0.02218923871449233</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.01991457329091028</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.006739213473433409</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.003697865156202846</v>
+        <v>-0.00412104259029083</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01211240263397299</v>
+        <v>0.001489320649345486</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.02441972454173902</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.02977210585132421</v>
       </c>
       <c r="GA10" t="n">
         <v>0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0380733145852073</v>
+        <v>-0.04201092091254649</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.02977179526124163</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,22 +6128,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3301122100025375</v>
+        <v>0.5551579428259135</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>-0.2425430702317883</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03277706500297789</v>
+        <v>-0.1506766661926395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5366243367733988</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
@@ -6155,52 +6155,52 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2871272109967822</v>
+        <v>0.4777254912241717</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0.254909955795878</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1176329972386445</v>
+        <v>-0.2057176965143236</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6256529578952248</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04175036820982643</v>
+        <v>0.1525492886119854</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0.008696073752571903</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05246222494141235</v>
+        <v>0.0861569961346406</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1348248220234401</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6209,52 +6209,52 @@
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0672948379321799</v>
+        <v>0.1166096908266328</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>0.001190052743659858</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.09636870583129201</v>
+        <v>-0.001429558295255545</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.07362266153892325</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02278140097589992</v>
+        <v>0.06626318813998347</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0.02260921176166639</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03833262716786889</v>
+        <v>-0.02537188921776616</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.111390521135296</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -6263,19 +6263,19 @@
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2677598003662446</v>
+        <v>0.4988829689007592</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0.02192413533171946</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.153509560302017</v>
+        <v>0.08879036613131305</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2616297582767993</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6287,82 +6287,82 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.09025189532677062</v>
+        <v>0.06562038319081129</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0</v>
+        <v>-0.09884545298573308</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1035323064018825</v>
+        <v>-0.2465476722483913</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1411312428613877</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05278505572308916</v>
+        <v>0.06642904013177818</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>-0</v>
+        <v>0.05582315380179269</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.12170887014313</v>
+        <v>0.04271239389614757</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.09977538836793598</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1225128750719749</v>
+        <v>0.2827111139446433</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>-0.06134877768279721</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.08380714221048516</v>
+        <v>0.06588681329246723</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.294489144113589</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.1061458338450088</v>
+        <v>-0.1220913929187614</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>0.03644679041433904</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0204975481357257</v>
+        <v>-0.01216098720746076</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.09240922252385711</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6398,22 +6398,22 @@
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0.006142502596743974</v>
+        <v>-0.03532412798487509</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0.07588559657295625</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.09608865790862806</v>
+        <v>-0.1131815626625403</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.1098269128694403</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
@@ -6425,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.09370857355533382</v>
+        <v>-0.1039860629432535</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0.05144575046327381</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.02757847753904332</v>
+        <v>-0.01250496669015023</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.08210493816362444</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6446,160 +6446,160 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.03901369085510713</v>
+        <v>-0.07075867959655732</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0</v>
+        <v>0.03148961340718454</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02475631187258107</v>
+        <v>0.01798594684873402</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.05242769197814365</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0.01014606734403618</v>
+        <v>-0.05655329607467577</v>
       </c>
       <c r="DP11" t="n">
         <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0.02918312602971489</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01588010273969266</v>
+        <v>-0.08227551019326146</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.1154222083841382</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0.08270178552971255</v>
+        <v>0.04459618323733418</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0.03955622728033572</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02638926796338142</v>
+        <v>-0.02104676492265019</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.03527136760123898</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.1082484851718542</v>
+        <v>-0.06839024974759757</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>0.0560507957411942</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07498395437926797</v>
+        <v>0.0659823016708551</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.09094218234260276</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.04562770992772154</v>
+        <v>-0.1006079381575802</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>0.02445448079862796</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.05538520697453402</v>
+        <v>0.03830189902495351</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.1138313843061669</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.113308571312603</v>
+        <v>-0.1116252403370809</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>0.06326882975589</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01828547700964379</v>
+        <v>-0.0152529581331342</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.1082770349685925</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6611,22 +6611,22 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.02951721139961122</v>
+        <v>-0.01762596276331823</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0.0819593933575707</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01551707577166343</v>
+        <v>-0.0535140285861791</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0.1155771606880352</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6635,58 +6635,58 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.03983093711946012</v>
+        <v>0.004948100312100984</v>
       </c>
       <c r="FR11" t="n">
         <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>0.04945673482434494</v>
       </c>
       <c r="FT11" t="n">
-        <v>-0.004235525109882361</v>
+        <v>0.00984892657875802</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.004271370547036329</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
         <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.008812854309193922</v>
+        <v>-0.01866325265970753</v>
       </c>
       <c r="GA11" t="n">
         <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0.05540680771825736</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0692613124302294</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>-0</v>
@@ -6694,37 +6694,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.136454222055864</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07774053602655727</v>
+        <v>-0.01528479203520033</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2126282809904806</v>
+        <v>-0.08468305517941427</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.03414103444579188</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1089476941873885</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6733,25 +6733,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03647156284143881</v>
+        <v>-0.02157995454045</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2189517668161653</v>
+        <v>-0.1012959849445551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.03935504798249335</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.01872221616371819</v>
       </c>
       <c r="U12" t="n">
         <v>-0</v>
@@ -6760,16 +6760,16 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01205227964359227</v>
+        <v>-0.005072572643909984</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03719179683285634</v>
+        <v>0.007851978048001527</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03323175135568404</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.01464733222069297</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6787,43 +6787,43 @@
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.07143259072672151</v>
+        <v>0.01284472708252207</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.06176758268432384</v>
+        <v>-0.002308036015302659</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.05551376233000559</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.00639893919951408</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.0110014831630266</v>
+        <v>-0.0130531379601332</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.02242560122714505</v>
+        <v>-0.0149756465026066</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0004392883722787784</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,214 +6832,214 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.1031832290450098</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.02133471699937848</v>
+        <v>-0.01526129238740877</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.04377643293120759</v>
+        <v>-0.03789654662286067</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.01579010761673494</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.04390811816356971</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.02928811917091753</v>
+        <v>-0.03211105380045551</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04784123848008306</v>
+        <v>-0.04650633974858079</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.0457994992259602</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.04528505161976266</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.007574664563564701</v>
+        <v>0.02344144052568435</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.05402547669981828</v>
+        <v>0.008309391879694445</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.01505525759536016</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.04833610311662011</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.06356323810469219</v>
+        <v>-0.0009560583832833554</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.1129245079908512</v>
+        <v>-0.01669313514946856</v>
       </c>
       <c r="CA12" t="n">
         <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0325951314820323</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.02681092253782091</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.01555245488246854</v>
+        <v>-0.002923169881238457</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.03901668456264543</v>
+        <v>0.02506784366970084</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01767643249457211</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.01527299122647187</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.02683117487756975</v>
+        <v>0.009944480840403223</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.06354289829836905</v>
+        <v>-0.009173798030434428</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0209991867299671</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.01836816759632294</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.0241685628684719</v>
+        <v>-0.002142826162358466</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.04099121303936292</v>
+        <v>0.02463259027486274</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02277919135965217</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.026956217337294</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.09158868882839712</v>
+        <v>0.01298530849747217</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.006203523959361259</v>
+        <v>0.0002284061077876941</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.01120800450950827</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,115 +7048,115 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.01922440472735903</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0005277573932535631</v>
+        <v>0.006791455569243831</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.04287900395213639</v>
+        <v>0.006902419930850502</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.02794411002166678</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
         <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.01348873540882265</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.01146589691089639</v>
+        <v>-0.004748662227946882</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.005263375568338387</v>
+        <v>-0.01418617198553473</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.004325241501925462</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.01226905121920143</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.07498702654463038</v>
+        <v>0.0005463698619766715</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.07185477387289457</v>
+        <v>0.01482679483973342</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.01280806082273509</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.005940816257268848</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
         <v>0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.003054755375633525</v>
+        <v>0.006240349599943447</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.04687647333040188</v>
+        <v>0.0129354837231548</v>
       </c>
       <c r="EU12" t="n">
         <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.02735886795915665</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.01919260667582262</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
@@ -7165,16 +7165,16 @@
         <v>0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.01396981715817917</v>
+        <v>-0.0002256536348331041</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.04432461773936827</v>
+        <v>0.02780826921091565</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.02371905118822694</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>0</v>
@@ -7183,34 +7183,34 @@
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.002984358126909825</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0004161593867209048</v>
+        <v>-0.01858710004204234</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0.03481372525637565</v>
+        <v>0.02192096250131277</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0222297330569633</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>5.725937803713366e-05</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
@@ -7219,25 +7219,25 @@
         <v>0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.001184595601100217</v>
+        <v>-0.001414697908836521</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0009764788823466615</v>
+        <v>0.01575460842636233</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0.01761621786277484</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.01520087879327517</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0475982300868206</v>
+        <v>-0.01857872799264919</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.03243813326595101</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,79 +7266,79 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2484303499834843</v>
+        <v>0.9693096854668491</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.414675274672283</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06121268811944452</v>
+        <v>-0.2682886518033066</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4596955258712517</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.221868279053419</v>
+        <v>0.7343668891176016</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0.3644393913505021</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02182056836986779</v>
+        <v>-0.289443778789033</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5227750059851101</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01802184962929539</v>
+        <v>0.2118320877873702</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0.0888531010048189</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0005435444938637424</v>
+        <v>0.009130579721479948</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1204824213645406</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -7347,103 +7347,103 @@
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.03099071002311536</v>
+        <v>0.1137264690819172</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0</v>
+        <v>-0.02013651303936857</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1019882568654742</v>
+        <v>-0.008521876979631497</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.1101306329718644</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.01790054255395597</v>
+        <v>0.08071388162229773</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.05127142038260828</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01301635309026688</v>
+        <v>-0.06175644199115229</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.07210179904303218</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1844385700070031</v>
+        <v>0.7417093965057329</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0.01503161150749968</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.0564727665373896</v>
+        <v>0.02440720705154856</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1541713910505882</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.09401025047929701</v>
+        <v>0.1052567486186746</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>-0.1865210749118863</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.06029942986232228</v>
+        <v>-0.3760090502094713</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1662211440831043</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7455,52 +7455,52 @@
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.02453184039034759</v>
+        <v>0.1565975580897339</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0</v>
+        <v>0.06179874494520846</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.08159157706332566</v>
+        <v>0.1239228739715702</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.1163216655067645</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.08176111613715617</v>
+        <v>0.3955293595488003</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>-0.02155269506594122</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.09095093301857934</v>
+        <v>0.02849283945573523</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2023930550762688</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -7509,49 +7509,49 @@
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.06308789550248754</v>
+        <v>-0.1835963516252771</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>0.06030512554844031</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.001612309510387164</v>
+        <v>-0.02551290077223061</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.07304301560178861</v>
+        <v>-0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.01927116548052224</v>
+        <v>0.001556453858324508</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0.1459254453048237</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.04853675338967139</v>
+        <v>-0.1339840504658734</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.08830565180501433</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,181 +7563,181 @@
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.05319801498322085</v>
+        <v>-0.1572876102234378</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0.09613443436881514</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.003049445714294378</v>
+        <v>-0.03870381335905678</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.07297007607451075</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02199217474464041</v>
+        <v>-0.1404095338064327</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>0.08827306973852397</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.004968563567739704</v>
+        <v>0.01543273145985332</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.03914544338147454</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.007652906951969071</v>
+        <v>-0.1045336833343151</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0.002345394654317209</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02978648375832154</v>
+        <v>-0.09222144553638345</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0706925582946302</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.01310555972142549</v>
+        <v>0.03163902942798742</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>0.01835674355994654</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.0379617304476158</v>
+        <v>-0.08090852051140933</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.006276855470746012</v>
+        <v>-0</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0793634382600797</v>
+        <v>-0.1307233619536361</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0.03835097248113387</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.1210803624357916</v>
+        <v>0.09820357336693178</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.09930919002125153</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01973379968508127</v>
+        <v>-0.09164091844584768</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>0.06763640335692937</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.03111305876339616</v>
+        <v>-0.03160469169765504</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.127158887113233</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.07084226420601868</v>
+        <v>-0.1538507231510892</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.08224693608845234</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.003180198823785072</v>
+        <v>-0.02425122472207305</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.08673565533932798</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7752,82 +7752,82 @@
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.06634139503428613</v>
+        <v>-0.05653952438804526</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0.09494218578565053</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.003488786009257614</v>
+        <v>-0.06600224145768117</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0.04628966587733627</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.05730351664687271</v>
+        <v>0.0001499803669970135</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>0.04276450373537638</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.0023728127720471</v>
+        <v>-0.002101005018160105</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0002548943668453929</v>
+        <v>-0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.03186654052191619</v>
+        <v>0.02303666037637804</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.03266810648691743</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.04742650386447722</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,61 +7835,61 @@
         <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.3584263355158025</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1748080067120581</v>
+        <v>0.07054356519492137</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2505042790143031</v>
+        <v>0.6757335966407643</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4235002206808419</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.2815249635663052</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3228857660875989</v>
+        <v>0.001076001667134229</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.213582888440951</v>
+        <v>0.6621296652004959</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5149930208312112</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>-0.02261152973827276</v>
       </c>
       <c r="U14" t="n">
         <v>-0</v>
@@ -7898,25 +7898,25 @@
         <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1479283424846634</v>
+        <v>0.04468158215747921</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.02498453824180422</v>
+        <v>0.04915980445873799</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2014218195999924</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>-0.09397738437547734</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
@@ -7925,43 +7925,43 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06671388123211192</v>
+        <v>-0.04272001079871132</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.02767874279267607</v>
+        <v>0.04567183750646853</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.01972974775623831</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0.04028040565363836</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1652497199227717</v>
+        <v>-0.03343058032541105</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.009986061737293691</v>
+        <v>0.1013374147220494</v>
       </c>
       <c r="AQ14" t="n">
         <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03366341234319272</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
@@ -7970,196 +7970,196 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0.3496123901370689</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.08093909337459335</v>
+        <v>0.1176416667378131</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.1986331041766985</v>
+        <v>0.4159167410334281</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2299756835392701</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0</v>
+        <v>-0.1363276258712861</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1864185943163106</v>
+        <v>0.07804823697946346</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.07040015833797517</v>
+        <v>0.1334109812523011</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1045207310386176</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>-0.06437718804027238</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02921052805431837</v>
+        <v>-0.05677652824897449</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.005251189462676838</v>
+        <v>0.0167280044953449</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.01832173851439632</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>-0.1814432584153705</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX14" t="n">
         <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.05209117347357242</v>
+        <v>0.05096246965670754</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.1795637806721684</v>
+        <v>0.2442437851956338</v>
       </c>
       <c r="CA14" t="n">
         <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1822009021570503</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.09563317152722253</v>
       </c>
       <c r="CF14" t="n">
         <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.06842325637180498</v>
+        <v>-0.001868486598459206</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.04702178248110104</v>
+        <v>-0.1280446536226048</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.06014659504887492</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.0412637418483278</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.1041060715232437</v>
+        <v>-0.09548358933826835</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.04384986277634771</v>
+        <v>0.03347332754688526</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.07259573407424427</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.06836744339993493</v>
       </c>
       <c r="CX14" t="n">
         <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.05839647890776532</v>
+        <v>-0.005964797800183227</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.04969722418767886</v>
+        <v>-0.1292388377225533</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.0874549222049469</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>0.03522074379844873</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8168,16 +8168,16 @@
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.02321875992845265</v>
+        <v>-0.0451292987198296</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.005234837294508884</v>
+        <v>-0.002096138166662609</v>
       </c>
       <c r="DK14" t="n">
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02301945120507444</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
         <v>-0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0.02082847349919064</v>
       </c>
       <c r="DP14" t="n">
         <v>-0</v>
@@ -8195,133 +8195,133 @@
         <v>-0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.08239229288369505</v>
+        <v>0.01169424518701359</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0.01576374599105474</v>
+        <v>-0.04839778300533853</v>
       </c>
       <c r="DT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.007033321378182841</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0.01373815011721641</v>
       </c>
       <c r="DY14" t="n">
         <v>-0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.04337033309119602</v>
+        <v>0.04125175225901213</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0.007014372171721114</v>
+        <v>-0.03921136714938062</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0.075289964316851</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>0.05876603620853781</v>
       </c>
       <c r="EH14" t="n">
         <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.009988550709561622</v>
+        <v>-0.06697709981787055</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.06575453320545663</v>
+        <v>-0.1187965508257458</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.05517147652392992</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO14" t="n">
         <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0.05477361947891703</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.05475912209057441</v>
+        <v>-0.03807295209295621</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0.005072578849362291</v>
+        <v>-0.008960976612050451</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.02671554549098213</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.06711425615821572</v>
       </c>
       <c r="EZ14" t="n">
         <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.08057678101009028</v>
+        <v>-0.0186092983772505</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.06383784451130545</v>
+        <v>-0.1237551099324788</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.08923647359192621</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>0.05165863531889633</v>
       </c>
       <c r="FI14" t="n">
         <v>0</v>
@@ -8330,70 +8330,70 @@
         <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.07113220858476317</v>
+        <v>0.02357539816790319</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.05697853315919708</v>
+        <v>0.09284515781444785</v>
       </c>
       <c r="FM14" t="n">
         <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.004339297817369549</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP14" t="n">
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>0.003168337348758927</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.0008847525935998203</v>
+        <v>0.001305324771699856</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.006746190265672657</v>
+        <v>-0.05248366356703922</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.08384075056353249</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>0.02371463551229076</v>
       </c>
       <c r="GA14" t="n">
         <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0.04722069699326974</v>
+        <v>0.03277649065415175</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0.02808788115098025</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,325 +8401,325 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.4207407582783952</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.1057680806656078</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04843737539225707</v>
+        <v>-0.06614013104404462</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1092627602498284</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2117298600837958</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0.344898224608627</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-0.1246645582748916</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1294848132097288</v>
+        <v>-0.08548388747449838</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.06777786102529891</v>
+        <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3172035205146282</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.1058243800424973</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.01415784092786805</v>
       </c>
       <c r="W15" t="n">
-        <v>0.063848569973622</v>
+        <v>0.07668508086118024</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01027590044149859</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1001734505139301</v>
+        <v>-0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0.09342615938797148</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>-0.01372511832776135</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01684351166623065</v>
+        <v>0.006778646018672934</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.00728431745751381</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.02519092740318072</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0.00726728785169232</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0</v>
+        <v>-0.03849531132134775</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1089924435328776</v>
+        <v>-0.06837206553982138</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0008346800151592093</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.0003205279106095394</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.2825432897005961</v>
       </c>
       <c r="AV15" t="n">
         <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>0.01117265865013376</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.02395105339022505</v>
+        <v>0.1050154596940906</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.06344605402665195</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0885633312077154</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.05940438651593592</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>-0.06207979295017589</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.05231328906359898</v>
+        <v>-0.1125931060130989</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.003874117066726117</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.07446539271730017</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.06001821980777427</v>
       </c>
       <c r="BN15" t="n">
         <v>-0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>0.01248016243682259</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.02664829010237884</v>
+        <v>0.1742850571410473</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.0005286410534208591</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.008621378420603133</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.1413633229110826</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0</v>
+        <v>0.03786953959328373</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.04232782329838097</v>
+        <v>0.08541862479101886</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0.1001324354074828</v>
+        <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.09950983517245647</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.08509261325521747</v>
       </c>
       <c r="CF15" t="n">
         <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0</v>
+        <v>0.01069910619404409</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01645964717696946</v>
+        <v>-0.004751237532125739</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.02513653468214031</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0.04385348779262649</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.05696423441630818</v>
       </c>
       <c r="CO15" t="n">
         <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0</v>
+        <v>-0.07944349286456209</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.03705169108885142</v>
+        <v>-0.1119013589346013</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0.05425456620285617</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.002761720787457806</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.07391771015257588</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>0.02626905894571118</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01273266168300888</v>
+        <v>-0.006689934287718516</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.02296414620391916</v>
+        <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0.05362217423131525</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
@@ -8728,79 +8728,79 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.07141853557554</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0</v>
+        <v>0.01134601792306502</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.04003097615065439</v>
+        <v>0.01985261913270829</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.04338311477864944</v>
+        <v>-0</v>
       </c>
       <c r="DK15" t="n">
         <v>-0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.00639309631806048</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>-0.03286758628912744</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0</v>
+        <v>-0.1210160496938121</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.05404888462891724</v>
+        <v>-0.02826847065997855</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0.0161414742787042</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0.04053999685700995</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0.07961023745249052</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>0.004064416429594918</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.06802293502468869</v>
+        <v>0.03293975564082362</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001907043925250085</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0.008324028484385439</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
@@ -8809,52 +8809,52 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.08502341726040563</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>-0.06066832725731706</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.01742949492536571</v>
+        <v>0.07269801013394418</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.01937695467036292</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0.03666630017324649</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.05963753531932518</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0</v>
+        <v>0.03393832511731459</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.01134678583306762</v>
+        <v>0.02106246991945144</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.008318335458383914</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.03476252977422505</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
         <v>-0</v>
@@ -8863,25 +8863,25 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.0757303959479048</v>
       </c>
       <c r="EZ15" t="n">
         <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0</v>
+        <v>0.008392059306536886</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.03510394090948944</v>
+        <v>0.01036374921147554</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.03187315958162121</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0.0584701455875417</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>-0</v>
@@ -8890,82 +8890,82 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.04451910997438841</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>0.0492682343527534</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0624028613712905</v>
+        <v>0.05190337132649394</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.04890445107216242</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0554849716243969</v>
+        <v>0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.02195518555359808</v>
       </c>
       <c r="FR15" t="n">
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0</v>
+        <v>0.0398098162714226</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.03923628347613477</v>
+        <v>-0.008674086492441094</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.01523120796583955</v>
+        <v>-0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.03851179251780362</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.01907278246302546</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0</v>
+        <v>-0.07891588057507001</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0.01611129430138902</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.05949422436030455</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
